--- a/data/trans_camb/P24_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,34</t>
+          <t>-3,4; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,54</t>
+          <t>-3,32; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,09</t>
+          <t>-1,46; 5,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 13,65</t>
+          <t>-1,39; 6,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,12</t>
+          <t>-2,33; 9,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,82</t>
+          <t>-7,84; 7,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 4,06</t>
+          <t>-4,82; 5,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 16,88</t>
+          <t>-3,08; 6,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,18</t>
+          <t>-5,36; 3,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,28</t>
+          <t>-0,42; 11,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,26</t>
+          <t>-2,33; 13,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 11,51</t>
+          <t>-7,66; 11,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 2,7</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 3,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 3,28</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 7,4</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 8,92</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 7,25</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-51,71%</t>
+          <t>-43,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>110,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>300,58%</t>
+          <t>124,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>103,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>166,45%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>196,57%</t>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>111,28%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>58,59%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -875,47 +1013,77 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 224,59</t>
+          <t>-70,7; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 313,1</t>
+          <t>-85,94; 466,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 168,73</t>
+          <t>-66,02; 185,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 536,06</t>
+          <t>-45,43; 220,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 121,17</t>
+          <t>-72,24; 128,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 232,65</t>
+          <t>-12,72; 391,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 188,66</t>
+          <t>-19,74; 204,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,65; 596,02</t>
+          <t>-41,09; 130,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-60,23; 150,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-46,61; 188,8</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-57,32; 169,31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 385,34</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-19,65; 186,23</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-43,06; 121,64</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,22</t>
+          <t>-2,96; 1,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,25</t>
+          <t>0,22; 7,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,51</t>
+          <t>-1,62; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,38</t>
+          <t>-0,41; 7,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 7,47</t>
+          <t>-6,5; 2,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,53</t>
+          <t>-4,32; 3,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 11,29</t>
+          <t>-1,48; 7,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,47</t>
+          <t>2,68; 12,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,76</t>
+          <t>2,04; 11,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,02</t>
+          <t>6,19; 19,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,07</t>
+          <t>-9,81; 5,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,54</t>
+          <t>-2,09; 12,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 3,53</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 8,67</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 6,43</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 11,7</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 3,0</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 6,49</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-53,59%</t>
+          <t>-54,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>243,24%</t>
+          <t>245,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>188,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>-48,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>232,38%</t>
+          <t>-18,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>211,25%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>186,28%</t>
+          <t>234,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>217,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>234,75%</t>
+          <t>407,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>154,52%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>154,64%</t>
+          <t>61,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45,74%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>236,41%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>162,08%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>326,74%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>43,48%</t>
         </is>
       </c>
     </row>
@@ -1141,57 +1399,87 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,85; —</t>
+          <t>-28,93; 1674,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-84,14; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-56,44; 1849,7</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-47,87; 526,45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>32,2; 846,28</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 763,02</t>
+          <t>-41,78; 618,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 769,58</t>
+          <t>26,28; 976,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 303,39</t>
+          <t>30,05; 938,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,76; 647,78</t>
+          <t>108,31; 1521,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 477,67</t>
+          <t>-51,9; 51,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 467,11</t>
+          <t>-23,05; 213,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-43,74; 298,82</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>71,05; 698,93</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 499,4</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>107,98; 908,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-55,03; 43,44</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 183,0</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>6,91</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,84</t>
+          <t>-6,03; -0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 1,45</t>
+          <t>-4,1; 1,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,15</t>
+          <t>-3,85; 1,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,35</t>
+          <t>-0,73; 7,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,46</t>
+          <t>-5,66; 4,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 1,53</t>
+          <t>-3,58; 5,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,75</t>
+          <t>-6,17; 2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 7,6</t>
+          <t>-5,75; 1,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,41</t>
+          <t>-4,32; 3,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,6</t>
+          <t>-0,59; 9,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,86</t>
+          <t>-0,97; 11,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,54</t>
+          <t>0,12; 13,03</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; -0,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 0,75</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 1,74</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 6,51</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 6,0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 7,36</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-81,82%</t>
+          <t>-78,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>-20,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>80,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,86%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>-30,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>-25,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-49,69%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-29,61%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>69,76%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-45,37%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-28,34%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-9,55%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>62,13%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>50,26%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -9,55</t>
+          <t>-100,0; 50,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 83,07</t>
+          <t>-81,13; 76,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 119,14</t>
+          <t>-71,99; 110,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 243,95</t>
+          <t>-22,96; 341,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 31,79</t>
+          <t>-61,78; 103,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,32; 36,77</t>
+          <t>-55,02; 198,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 72,34</t>
+          <t>-63,43; 42,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 137,83</t>
+          <t>-62,21; 32,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,94; -5,21</t>
+          <t>-44,89; 69,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 15,75</t>
+          <t>-10,29; 184,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 44,17</t>
+          <t>-8,74; 132,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 106,27</t>
+          <t>0,12; 183,37</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-70,75; -5,7</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-58,72; 19,41</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-45,78; 42,12</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 148,51</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-19,65; 85,86</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 125,98</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>2,49</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 10,15</t>
+          <t>0,03; 10,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,48</t>
+          <t>-1,41; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,33</t>
+          <t>-1,52; 3,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 13,15</t>
+          <t>1,68; 14,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,59</t>
+          <t>-8,33; 7,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 6,05</t>
+          <t>-6,17; 7,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,26</t>
+          <t>-2,18; 5,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 13,13</t>
+          <t>-1,02; 6,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,29</t>
+          <t>-1,41; 6,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,04</t>
+          <t>4,71; 14,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,16</t>
+          <t>-7,69; 4,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,19</t>
+          <t>-6,54; 5,99</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 6,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 4,28</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 4,01</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 12,3</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 3,91</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 5,1</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>136,09%</t>
+          <t>145,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>263,35%</t>
+          <t>261,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>124,81%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>146,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>-10,66%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>152,37%</t>
+          <t>-2,16%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>54,22%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>171,31%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 750,46</t>
+          <t>-19,78; 830,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 318,34</t>
+          <t>-49,8; 332,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 289,97</t>
+          <t>-49,82; 329,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,93; 1062,22</t>
+          <t>18,63; 1153,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 117,57</t>
+          <t>-57,7; 152,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 128,4</t>
+          <t>-51,09; 154,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 144,06</t>
+          <t>-30,8; 113,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,67; 281,25</t>
+          <t>-17,65; 141,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 156,64</t>
+          <t>-19,65; 134,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 121,09</t>
+          <t>49,92; 298,91</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 116,92</t>
+          <t>-42,36; 34,68</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>57,88; 326,77</t>
+          <t>-38,09; 58,16</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 191,15</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 121,31</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 115,28</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>72,58; 331,29</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-37,94; 39,64</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; 58,83</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,63</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>8,35</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,09</t>
+          <t>-1,25; 4,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,38</t>
+          <t>2,2; 13,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,35</t>
+          <t>0,95; 7,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,81</t>
+          <t>1,59; 9,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,2</t>
+          <t>1,69; 14,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,51</t>
+          <t>-4,2; 10,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,87</t>
+          <t>-1,05; 8,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,18; 19,65</t>
+          <t>-2,27; 6,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 5,47</t>
+          <t>1,33; 10,85</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,67</t>
+          <t>5,58; 17,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 7,87</t>
+          <t>-2,7; 13,99</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,03; 15,75</t>
+          <t>-4,29; 10,96</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 5,27</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 7,72</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 7,92</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 11,96</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 11,43</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 8,01</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>353,16%</t>
+          <t>377,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>246,88%</t>
+          <t>258,36%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>620,36%</t>
+          <t>332,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>66,26%</t>
+          <t>109,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>123,85%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>277,74%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>121,72%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>114,16%</t>
+          <t>229,69%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>156,18%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>367,12%</t>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>74,42%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>120,61%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>157,46%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>260,08%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-85,57; 1046,54</t>
+          <t>-77,26; 840,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>14,72; 2113,1</t>
+          <t>23,33; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 1586,75</t>
+          <t>-17,25; 1632,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>109,73; 3364,57</t>
+          <t>-8,59; 1734,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 251,54</t>
+          <t>9,84; 335,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 180,99</t>
+          <t>-30,21; 130,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,42; 367,39</t>
+          <t>-20,58; 251,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>102,31; 617,2</t>
+          <t>-34,04; 199,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 268,66</t>
+          <t>11,6; 345,5</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2,26; 300,4</t>
+          <t>79,73; 577,11</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>43,4; 374,4</t>
+          <t>-13,16; 115,07</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>171,55; 730,76</t>
+          <t>-19,67; 74,25</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 234,88</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>16,88; 342,86</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>51,13; 395,95</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>102,42; 573,62</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 119,88</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; 60,8</t>
         </is>
       </c>
     </row>
@@ -2041,57 +2689,87 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>10,82</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>8,94</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,27</t>
+          <t>-1,96; 5,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,68</t>
+          <t>-1,94; 5,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 12,97</t>
+          <t>-0,39; 11,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,61</t>
+          <t>-0,55; 9,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 5,39</t>
+          <t>-1,96; 12,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,32</t>
+          <t>0,02; 13,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 8,96</t>
+          <t>-4,49; 7,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 12,19</t>
+          <t>-1,77; 8,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,24</t>
+          <t>-1,7; 11,03</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,53</t>
+          <t>3,4; 17,7</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 7,97</t>
+          <t>-4,43; 14,86</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,76</t>
+          <t>1,66; 19,88</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 5,79</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 5,74</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 8,79</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 12,73</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 11,03</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 14,76</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>147,29%</t>
+          <t>133,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>138,74%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>131,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>114,98%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>82,22%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>38,11%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>62,19%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>117,74%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,01; 475,72</t>
+          <t>-54,93; 443,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 344,54</t>
+          <t>-52,52; 417,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 797,51</t>
+          <t>-35,42; 822,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 498,25</t>
+          <t>-33,39; 706,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 77,53</t>
+          <t>-25,23; 300,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 125,85</t>
+          <t>-9,9; 542,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 132,79</t>
+          <t>-44,1; 104,64</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 173,48</t>
+          <t>-18,25; 125,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-38,81; 81,69</t>
+          <t>-17,26; 157,94</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 115,37</t>
+          <t>30,31; 264,02</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 153,49</t>
+          <t>-18,96; 106,58</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 160,41</t>
+          <t>6,16; 220,41</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-30,64; 135,79</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 119,27</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 176,2</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>39,43; 259,76</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 103,53</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 212,87</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-0,9; 1,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,95</t>
+          <t>0,18; 2,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,17</t>
+          <t>0,22; 3,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,03</t>
+          <t>2,14; 5,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,31</t>
+          <t>-0,48; 4,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,92</t>
+          <t>-0,6; 4,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,63</t>
+          <t>-0,96; 3,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,43</t>
+          <t>0,17; 3,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,7</t>
+          <t>0,89; 4,87</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,03</t>
+          <t>6,19; 11,13</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,31</t>
+          <t>-0,12; 6,05</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,02</t>
+          <t>1,93; 8,04</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,85</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,0</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,42</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 7,9</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 4,5</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 5,43</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>65,81%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>177,29%</t>
+          <t>169,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>108,25%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>137,05%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>124,25%</t>
+          <t>38,01%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>43,83%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>51,18%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>145,4%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 99,75</t>
+          <t>-34,03; 102,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>4,21; 167,16</t>
+          <t>6,11; 173,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,16; 181,14</t>
+          <t>4,26; 178,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>76,71; 342,37</t>
+          <t>73,59; 329,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 42,46</t>
+          <t>-8,07; 87,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,86; 70,55</t>
+          <t>-8,05; 86,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>8,85; 86,77</t>
+          <t>-14,28; 56,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>59,2; 168,29</t>
+          <t>2,26; 72,01</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 44,82</t>
+          <t>11,38; 87,44</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>12,35; 78,08</t>
+          <t>86,37; 205,94</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>17,24; 86,6</t>
+          <t>-1,04; 46,5</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>79,89; 183,0</t>
+          <t>13,12; 70,25</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 47,57</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 80,09</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 89,73</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>96,63; 207,37</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 47,63</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 64,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
